--- a/extra/Data_Pengujian_Pengguna.xlsx
+++ b/extra/Data_Pengujian_Pengguna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Sidang\Pro-PengajuanSidang\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274168C6-E5B0-42E2-82F6-5EE699BE043E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C85699-8562-4792-B027-D433C75F89D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -79,34 +79,10 @@
     <t>Status Masalah</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>LOGIN</t>
-  </si>
-  <si>
-    <t>Landing page</t>
-  </si>
-  <si>
     <t>Tertunda</t>
   </si>
   <si>
-    <t>Nayaka</t>
-  </si>
-  <si>
     <t>Terbuka</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Login page</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Lupa sandi</t>
   </si>
   <si>
     <t>4</t>
@@ -354,16 +330,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -668,168 +645,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="20.42578125" style="2" customWidth="1"/>
+    <col min="1" max="18" width="20.42578125" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4" t="s">
-        <v>23</v>
-      </c>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -851,7 +697,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -907,162 +753,162 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="R3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="R4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="R5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="R6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1140,227 +986,227 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3" t="s">
-        <v>23</v>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1439,202 +1285,202 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="R3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="R4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="R5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="R6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="R10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="R11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
